--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="17190"/>
+    <workbookView windowWidth="19200" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>序号</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>认证码</t>
+  </si>
+  <si>
+    <t>gengdian@chicv.com</t>
   </si>
   <si>
     <t>admin</t>
@@ -1007,10 +1010,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1030,14 +1036,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1045,13 +1051,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1059,13 +1065,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
